--- a/trend_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
+++ b/trend_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0648172904395064</v>
+        <v>0.935182709560494</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.87246697938375</v>
+        <v>0.12753302061625</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.1098123859576</v>
+        <v>0.8901876140424</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.400459832883643</v>
+        <v>0.599540167116357</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.231216363225238</v>
+        <v>0.0012961994905311</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.783582089552239</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.484</v>
+        <v>1.525</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0085963779786293</v>
+        <v>0.0974866548042705</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0611320065181599</v>
+        <v>0.0399284258526206</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0145055931533999</v>
+        <v>0.221101906920374</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.77611115260936</v>
+        <v>6.39256752814888</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3163,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,14 +3177,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3188,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.59675202974633</v>
+        <v>0.312076520049992</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.541935483870968</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>114.29</v>
+        <v>1.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.559777058499121</v>
+        <v>-0.0050011410314924</v>
       </c>
       <c r="L31" t="n">
-        <v>-15.9299781056964</v>
+        <v>-0.0390733434765046</v>
       </c>
       <c r="M31" t="n">
-        <v>5.95622307423229</v>
+        <v>0.0112530064027883</v>
       </c>
       <c r="N31" t="n">
-        <v>0.489786559190761</v>
+        <v>-0.333409402099498</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3254,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,14 +3268,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3275,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.768783636774762</v>
+        <v>0.172894919059495</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.816091954022989</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.49</v>
+        <v>10.535</v>
       </c>
       <c r="K32" t="n">
-        <v>0.410621113258263</v>
+        <v>-0.011290941610593</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.874355736754386</v>
+        <v>-0.0324555707450444</v>
       </c>
       <c r="M32" t="n">
-        <v>0.711303359932306</v>
+        <v>0.0079954080697079</v>
       </c>
       <c r="N32" t="n">
-        <v>6.32698171430297</v>
+        <v>-0.107175525492102</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3345,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,14 +3359,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3362,31 +3374,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8144533152386511</v>
+        <v>0.0295743425692699</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0393258426966292</v>
       </c>
       <c r="H33" t="n">
+        <v>0.140449438202247</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.481</v>
+        <v>0.014</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0039983579638752</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.009326110325637399</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0106038439334515</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="N33" t="n">
-        <v>0.831259451949106</v>
+        <v>1.19074786464106</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3424,7 +3436,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3434,14 +3450,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3449,31 +3465,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.639742606431872</v>
+        <v>0.0007193864389329</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H34" t="n">
+        <v>0.644067796610169</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>114.1</v>
+        <v>91</v>
       </c>
       <c r="K34" t="n">
-        <v>0.475533240997231</v>
+        <v>3.98817106460419</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.64569310276827</v>
+        <v>1.92654277054126</v>
       </c>
       <c r="M34" t="n">
-        <v>1.62476821224425</v>
+        <v>6.08253948696704</v>
       </c>
       <c r="N34" t="n">
-        <v>0.416768835229825</v>
+        <v>4.38260556549911</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3482,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3511,7 +3527,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3521,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8144533152386511</v>
+        <v>0.724164944196736</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.919540229885057</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.109195402298851</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>5.7785</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.121712434433817</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.121605551995041</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.300292268879728</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.10629807794093</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3598,7 +3618,1253 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.064098455553892</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.522292993630573</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.07006369426751589</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.382506009986222</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0465</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0004495336919096</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999799967378884</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.560693641618497</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0217410714285716</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.011168674912532</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0326993801614612</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.284568997756172</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.793930973559506</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0786516853932584</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.589887640449438</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.000368408791613</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0013095941009554</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0003341035961976</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.669834166569199</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.852842890442728</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0056179775280898</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0012224096782157</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0035722510300465</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0005792835641324</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.740854350433808</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.60343575243806</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.370786516853933</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0003331162373482</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.000225722078888</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5691145831779461</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9269662921348319</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0049773007929286</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0497155497266644</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0529048001700724</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.162656888657799</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0085963779786293</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0611320065181599</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0145055931533999</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-1.77611115260936</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>114.29</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.559777058499121</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-15.9299781056964</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.95622307423229</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.489786559190761</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.410621113258263</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.874355736754386</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.711303359932306</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6.32698171430297</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8144533152386511</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0039983579638752</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.009326110325637399</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0106038439334515</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.831259451949106</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.475533240997231</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.64569310276827</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.62476821224425</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.416768835229825</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8144533152386511</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.7785</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.121712434433817</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.121605551995041</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.300292268879728</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.10629807794093</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.863940116029044</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>112.955</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.507644197359277</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.387895669484988</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.15698462665323</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.449421625744126</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
+++ b/trend_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.925748963843544</v>
+        <v>0.988963961487736</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="H2" t="n">
-        <v>0.833333333333333</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.43576394395982</v>
+        <v>-0.465880102040816</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.16735642959784</v>
+        <v>-1.39126584144555</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0259870420353019</v>
+        <v>-0.122345894335551</v>
       </c>
       <c r="N2" t="n">
-        <v>-20.7506639980867</v>
+        <v>-34.5096371882086</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.732895960186596</v>
+        <v>0.027644179528058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.02</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8301886792452829</v>
+        <v>0.8</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0335450788305526</v>
+        <v>-0.18974025974026</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.073734902333077</v>
+        <v>-0.5059361712396721</v>
       </c>
       <c r="M3" t="n">
-        <v>0.26416739207234</v>
+        <v>-0.008916631024706301</v>
       </c>
       <c r="N3" t="n">
-        <v>2.39607705932519</v>
+        <v>-27.1057513914657</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.935182709560494</v>
+        <v>0.359108064766993</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.53</v>
+        <v>10.47</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09170229658623449</v>
+        <v>-0.0182269352482959</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.009947224249990101</v>
+        <v>-0.120479561689865</v>
       </c>
       <c r="M4" t="n">
-        <v>0.15051510989011</v>
+        <v>0.0781348897151775</v>
       </c>
       <c r="N4" t="n">
-        <v>0.870867014114288</v>
+        <v>-0.174087251655166</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.180831799785116</v>
+        <v>0.07361642965856049</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.372881355932203</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.015</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004013736263736</v>
+        <v>0.0006211734693877</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0002928440921025</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0012472242170034</v>
+        <v>0.0013731203007518</v>
       </c>
       <c r="N5" t="n">
-        <v>2.67582417582418</v>
+        <v>4.14115646258503</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.309509174018921</v>
+        <v>0.164841675411837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.796610169491525</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>4.63809523809524</v>
+        <v>8.26591230551627</v>
       </c>
       <c r="L6" t="n">
-        <v>-10.839994112113</v>
+        <v>-5.97451888412622</v>
       </c>
       <c r="M6" t="n">
-        <v>18.0790400040588</v>
+        <v>22.1434315285284</v>
       </c>
       <c r="N6" t="n">
-        <v>4.10450906026127</v>
+        <v>6.88826025459689</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1024,18 +1024,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
+          <t>&lt; 3 unique values</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="H7" t="n">
-        <v>0.101694915254237</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.874920009262415</v>
+        <v>0.994013136081127</v>
       </c>
       <c r="G8" t="n">
-        <v>0.508474576271186</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="H8" t="n">
         <v>0.101694915254237</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.851464056932989</v>
+        <v>0.0062539628862445</v>
       </c>
       <c r="G9" t="n">
         <v>0.152542372881356</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1213,16 +1213,16 @@
         <v>0.042</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0030103021978022</v>
+        <v>0.0045127003911726</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0121492296940175</v>
+        <v>0.0008898190602447</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0015121242631691</v>
+        <v>0.0097340241831769</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.16738618524333</v>
+        <v>10.7445247408872</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.12753302061625</v>
+        <v>0.09763091590812201</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.847457627118644</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.66</v>
+        <v>7.64</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0344034536891678</v>
+        <v>-0.0361932287365814</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0815055124073361</v>
+        <v>-0.07765559353693149</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0175120316239939</v>
+        <v>0.0100611791486852</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.449131249205845</v>
+        <v>-0.473733360426458</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1368,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1376,13 +1376,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.879293429108955</v>
+        <v>0.0299659701639453</v>
       </c>
       <c r="G11" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.728813559322034</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1391,16 +1391,16 @@
         <v>0.055</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0043673694147262</v>
+        <v>0.0056180362048665</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0124813461977246</v>
+        <v>0.0002970799814468</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001590630168952</v>
+        <v>0.0134734530228438</v>
       </c>
       <c r="N11" t="n">
-        <v>-7.94067166313862</v>
+        <v>10.2146112815756</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,14 +1452,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.814286192319097</v>
+        <v>0.151232875459353</v>
       </c>
       <c r="G12" t="n">
-        <v>0.169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0.491525423728814</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>0.17</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.401373626373626</v>
+        <v>0.0070896537672853</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.2032330288495</v>
+        <v>-0.0036035550545781</v>
       </c>
       <c r="M12" t="n">
-        <v>0.38149349657937</v>
+        <v>0.0210001507418506</v>
       </c>
       <c r="N12" t="n">
-        <v>-6.68956043956044</v>
+        <v>4.17038456899138</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.828997753771233</v>
+        <v>0.0047473657298345</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.542372881355932</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.17</v>
+        <v>0.028</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0080274725274725</v>
+        <v>0.0035576298701298</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0248469725075237</v>
+        <v>0.0012423469387755</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0066896630381793</v>
+        <v>0.006480301443271</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.72204266321913</v>
+        <v>12.7058209647495</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1645,35 +1645,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.432376092833472</v>
+        <v>0.038171164146977</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.576271186440678</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.027</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.551888736263736</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0020068681318681</v>
+        <v>0.0230281751898337</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002116526828563</v>
+        <v>1.74483248719609</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>18.0947126643848</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8868380555402821</v>
+        <v>0.578112238491437</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="H15" t="n">
-        <v>0.949152542372881</v>
+        <v>0.797619047619048</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.9</v>
+        <v>1.775</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.257414285714286</v>
+        <v>-0.0124957367344263</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.19973359619344</v>
+        <v>-0.158688074184623</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0962758693670597</v>
+        <v>0.108705357142857</v>
       </c>
       <c r="N15" t="n">
-        <v>-8.87635467980296</v>
+        <v>-0.703985168136695</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.194729477213851</v>
+        <v>0.0002235542993439</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="H16" t="n">
-        <v>0.824175824175824</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06353123132098031</v>
+        <v>-0.156535714285714</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.07248433047677939</v>
+        <v>-0.278841764906089</v>
       </c>
       <c r="M16" t="n">
-        <v>0.21815206041627</v>
+        <v>-0.06799355903885659</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88778324186274</v>
+        <v>-11.1811224489796</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0071324377045519</v>
+        <v>0.9526347786034129</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0196078431372549</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.676470588235294</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.6</v>
+        <v>10.44</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.119391160110307</v>
+        <v>0.0232643312101912</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.200686813186813</v>
+        <v>0.0014289416828584</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0248469387755101</v>
+        <v>0.0515139103390619</v>
       </c>
       <c r="N17" t="n">
-        <v>-7.46194750689419</v>
+        <v>0.222838421553555</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2009,35 +2009,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8901876140424</v>
+        <v>0.58359047471408</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H18" t="n">
-        <v>0.873949579831933</v>
+        <v>0.210084033613445</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>10.52</v>
+        <v>0.015</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0198146473779387</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0083292513937468</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0514996356544518</v>
+        <v>0.0002514704012604</v>
       </c>
       <c r="N18" t="n">
-        <v>0.18835216138725</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,46 +2089,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.458020695114576</v>
+        <v>0.0474044888002528</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0336134453781513</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.210084033613445</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.015</v>
+        <v>109</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4.29705882352941</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0003330964760564</v>
+        <v>8.52531597693498</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.94225580140313</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,35 +2191,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0204219253767261</v>
+        <v>0.844778143332563</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>102.5</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>5.00342465753425</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.998819308719436</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>9.622650277108599</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.88138990978951</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,23 +2282,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.570800587966776</v>
+        <v>0.968769414459666</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9401709401709401</v>
+        <v>0.478991596638655</v>
       </c>
       <c r="H21" t="n">
-        <v>0.094017094017094</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,14 +2362,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2377,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.782042306874005</v>
+        <v>0.0026029672519661</v>
       </c>
       <c r="G22" t="n">
-        <v>0.403361344537815</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="H22" t="n">
-        <v>0.092436974789916</v>
+        <v>0.630252100840336</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0012542925824175</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0026300568456589</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.50858516483516</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,46 +2453,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0022277404903218</v>
+        <v>0.205731240058253</v>
       </c>
       <c r="G23" t="n">
-        <v>0.26890756302521</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.613445378151261</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.042</v>
+        <v>7.665</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0009393721633888001</v>
+        <v>-0.0071723122238586</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0203276385973206</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0025041967536993</v>
+        <v>0.0055037737127865</v>
       </c>
       <c r="N23" t="n">
-        <v>2.23660038902096</v>
+        <v>-0.0935722403634523</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2530,7 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,14 +2540,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2559,31 +2555,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.599540167116357</v>
+        <v>0.0181087725886144</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5726495726495729</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>7.67</v>
+        <v>0.055</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0015722019195513</v>
+        <v>0.0014432370820668</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0105408604373366</v>
+        <v>0.0001801405753539</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0139750515603469</v>
+        <v>0.0029951120481385</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0204980693552985</v>
+        <v>2.62406742193976</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2617,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2646,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0030680213100498</v>
+        <v>0.0862067817850812</v>
       </c>
       <c r="G25" t="n">
-        <v>0.100840336134454</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H25" t="n">
-        <v>0.571428571428571</v>
+        <v>0.487394957983193</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.054</v>
+        <v>0.17</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0017476076555023</v>
+        <v>0.0026758241758241</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008813773907714</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0032042177439746</v>
+        <v>0.0066895604395604</v>
       </c>
       <c r="N25" t="n">
-        <v>3.23631047315258</v>
+        <v>1.57401422107304</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,14 +2722,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0911399320154123</v>
+        <v>0.0098070847635183</v>
       </c>
       <c r="G26" t="n">
-        <v>0.159663865546218</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.38655462184874</v>
+        <v>0.453781512605042</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>0.026</v>
       </c>
       <c r="K26" t="n">
-        <v>0.166704701049749</v>
+        <v>0.0008843825665859</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.00019043274244</v>
       </c>
       <c r="M26" t="n">
-        <v>0.501717032967033</v>
+        <v>0.001674178762414</v>
       </c>
       <c r="N26" t="n">
-        <v>3.33409402099498</v>
+        <v>3.40147140994599</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0994934949713123</v>
+        <v>0.0265958837416492</v>
       </c>
       <c r="G27" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.546218487394958</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.158</v>
+        <v>3.07</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0024965823650034</v>
+        <v>0.132318865345181</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0006565814125735</v>
+        <v>0.0174856391936764</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0065643773595002</v>
+        <v>0.404948216746827</v>
       </c>
       <c r="N27" t="n">
-        <v>1.58011542088824</v>
+        <v>4.31006076042935</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0896245507890078</v>
+        <v>0.0144764088589587</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0143884892086331</v>
       </c>
       <c r="H28" t="n">
-        <v>0.420168067226891</v>
+        <v>0.755395683453237</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.025</v>
+        <v>1.45</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0003965798045602</v>
+        <v>0.0586387755102041</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0095048600827633</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001003434065934</v>
+        <v>0.128696068043583</v>
       </c>
       <c r="N28" t="n">
-        <v>1.58631921824104</v>
+        <v>4.04405348346235</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2995,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.154199821777205</v>
+        <v>0.043178180164001</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0264900662251656</v>
       </c>
       <c r="H29" t="n">
-        <v>0.949579831932773</v>
+        <v>0.556291390728477</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>1.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.043205186533212</v>
+        <v>-0.0265603588875565</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0380752978737362</v>
+        <v>-0.06418765445898469</v>
       </c>
       <c r="M29" t="n">
-        <v>0.152753160813154</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.64278275791681</v>
+        <v>-2.21336324062971</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0012961994905311</v>
+        <v>0.16537893682301</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.783582089552239</v>
+        <v>0.806818181818182</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.525</v>
+        <v>10.525</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0974866548042705</v>
+        <v>-0.0100343406593404</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0399284258526206</v>
+        <v>-0.0329897347473922</v>
       </c>
       <c r="M30" t="n">
-        <v>0.221101906920374</v>
+        <v>0.0060930628087816</v>
       </c>
       <c r="N30" t="n">
-        <v>6.39256752814888</v>
+        <v>-0.09533815353292591</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3192,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.312076520049992</v>
+        <v>0.0285953315784971</v>
       </c>
       <c r="G31" t="n">
-        <v>0.032258064516129</v>
+        <v>0.0337078651685393</v>
       </c>
       <c r="H31" t="n">
-        <v>0.541935483870968</v>
+        <v>0.140449438202247</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.5</v>
+        <v>0.014</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0050011410314924</v>
+        <v>0.0001664012219967</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0390733434765046</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0112530064027883</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.333409402099498</v>
+        <v>1.1885801571198</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0020595318422063</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.627118644067797</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.172894919059495</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.816091954022989</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>10.535</v>
+        <v>92</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.011290941610593</v>
+        <v>3.59741492989769</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0324555707450444</v>
+        <v>1.6384965761283</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0079954080697079</v>
+        <v>5.74685239934307</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.107175525492102</v>
+        <v>3.91023361945401</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3359,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0295743425692699</v>
+        <v>0.914507665769973</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0393258426966292</v>
+        <v>0.920454545454545</v>
       </c>
       <c r="H33" t="n">
-        <v>0.140449438202247</v>
+        <v>0.107954545454545</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001667047010497</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.000332347588717</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.19074786464106</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0007193864389329</v>
+        <v>0.257413151549884</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0056497175141242</v>
+        <v>0.544378698224852</v>
       </c>
       <c r="H34" t="n">
-        <v>0.644067796610169</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>91</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>3.98817106460419</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.92654277054126</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>6.08253948696704</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.38260556549911</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3541,34 +3541,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.724164944196736</v>
+        <v>0.190589272057241</v>
       </c>
       <c r="G35" t="n">
-        <v>0.919540229885057</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H35" t="n">
-        <v>0.109195402298851</v>
+        <v>0.6213017751479289</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.047</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0006553541363264</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,35 +3643,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.064098455553892</v>
+        <v>0.977071489600135</v>
       </c>
       <c r="G36" t="n">
-        <v>0.522292993630573</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07006369426751589</v>
+        <v>0.525714285714286</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001</v>
+        <v>7.64</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0101811846689896</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0016670470104974</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0190407919370441</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.133261579437036</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3709,11 +3709,7 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3738,31 +3734,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.382506009986222</v>
+        <v>0.758495614224154</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2375</v>
+        <v>0.06741573033707859</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6125</v>
+        <v>0.606741573033708</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0465</v>
+        <v>0.058</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.0003663938637698</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-0.001425644028103</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0004495336919096</v>
+        <v>0.0004740120898438</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-0.631713558223824</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3802,7 +3798,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3810,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3825,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999799967378884</v>
+        <v>0.831597574978995</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H38" t="n">
-        <v>0.560693641618497</v>
+        <v>0.49438202247191</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.64</v>
+        <v>0.177</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0217410714285716</v>
+        <v>-0.0013660147344386</v>
       </c>
       <c r="L38" t="n">
-        <v>0.011168674912532</v>
+        <v>-0.003341303876735</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0326993801614612</v>
+        <v>0.0007677497499992</v>
       </c>
       <c r="N38" t="n">
-        <v>0.284568997756172</v>
+        <v>-0.771759736970987</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3887,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3912,35 +3912,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.793930973559506</v>
+        <v>0.256114557552655</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0786516853932584</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.589887640449438</v>
+        <v>0.387640449438202</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.055</v>
+        <v>0.026</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.000368408791613</v>
+        <v>0.0001425644028103</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0013095941009554</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0003341035961976</v>
+        <v>0.000582973853718</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.669834166569199</v>
+        <v>0.548324626193477</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4007,31 +4007,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.852842890442728</v>
+        <v>0.229622797811679</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0056179775280898</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5</v>
+        <v>0.921348314606742</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.165</v>
+        <v>3.395</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0012224096782157</v>
+        <v>0.0381771253932473</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0035722510300465</v>
+        <v>-0.0314334859141626</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0005792835641324</v>
+        <v>0.133458884915623</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.740854350433808</v>
+        <v>1.12451032086148</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4083,46 +4083,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.60343575243806</v>
+        <v>0.113988691423495</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="H41" t="n">
-        <v>0.370786516853933</v>
+        <v>0.5053763440860219</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.026</v>
+        <v>1.335</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0109483882694577</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0003331162373482</v>
+        <v>-0.0377184830809232</v>
       </c>
       <c r="M41" t="n">
-        <v>0.000225722078888</v>
+        <v>0.0033171832824654</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-0.820103990221548</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4174,46 +4174,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5691145831779461</v>
+        <v>0.451170189491532</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0373831775700935</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9269662921348319</v>
+        <v>0.144859813084112</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.06</v>
+        <v>0.014</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0049773007929286</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0497155497266644</v>
+        <v>-9.09199888562746e-05</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0529048001700724</v>
+        <v>0.0001248062270189</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.162656888657799</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4265,14 +4265,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4280,31 +4280,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.231216363225238</v>
+        <v>0.0003795605922327</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0046948356807511</v>
       </c>
       <c r="H43" t="n">
+        <v>0.5821596244131459</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>0.484</v>
+        <v>91</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0085963779786293</v>
+        <v>3.28987873410234</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0611320065181599</v>
+        <v>1.63886277199012</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0145055931533999</v>
+        <v>5.01337455546697</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.77611115260936</v>
+        <v>3.61525135615641</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4342,7 +4342,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4352,46 +4356,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.897292364964533</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.919047619047619</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.104761904761905</v>
+      </c>
+      <c r="I44" t="n">
         <v>5</v>
       </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.59675202974633</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>114.29</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>0.559777058499121</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-15.9299781056964</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>5.95622307423229</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.489786559190761</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4400,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4429,7 +4433,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4439,46 +4447,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.768783636774762</v>
+        <v>0.732782330399341</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.23469387755102</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.591836734693878</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>6.49</v>
+        <v>0.05</v>
       </c>
       <c r="K45" t="n">
-        <v>0.410621113258263</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.874355736754386</v>
+        <v>-0.0011785052992526</v>
       </c>
       <c r="M45" t="n">
-        <v>0.711303359932306</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>6.32698171430297</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4516,7 +4524,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4526,46 +4538,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8144533152386511</v>
+        <v>0.940016213392654</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0934579439252336</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.579439252336449</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>0.481</v>
+        <v>0.059</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0039983579638752</v>
+        <v>-0.000888364742201</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.009326110325637399</v>
+        <v>-0.0019012913955346</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0106038439334515</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.831259451949106</v>
+        <v>-1.50570295288309</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4574,7 +4586,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4603,7 +4615,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4613,14 +4629,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4628,31 +4644,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.639742606431872</v>
+        <v>0.286022832091064</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.906542056074766</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>114.1</v>
+        <v>3.35</v>
       </c>
       <c r="K47" t="n">
-        <v>0.475533240997231</v>
+        <v>0.0158224679945012</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.64569310276827</v>
+        <v>-0.0277402590414763</v>
       </c>
       <c r="M47" t="n">
-        <v>1.62476821224425</v>
+        <v>0.076623206955075</v>
       </c>
       <c r="N47" t="n">
-        <v>0.416768835229825</v>
+        <v>0.472312477447797</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4661,7 +4677,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4690,7 +4706,11 @@
           <t>Mana_10c</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4700,11 +4720,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4715,7 +4735,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8144533152386511</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4727,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.7785</v>
+        <v>0.488</v>
       </c>
       <c r="K48" t="n">
-        <v>0.121712434433817</v>
+        <v>-0.0143112691807867</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.121605551995041</v>
+        <v>-0.0611320065181599</v>
       </c>
       <c r="M48" t="n">
-        <v>0.300292268879728</v>
+        <v>0.0102107258931863</v>
       </c>
       <c r="N48" t="n">
-        <v>2.10629807794093</v>
+        <v>-2.93263712721039</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4748,7 +4768,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4791,7 +4811,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4802,31 +4822,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.863940116029044</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>112.955</v>
+        <v>114.29</v>
       </c>
       <c r="K49" t="n">
-        <v>0.507644197359277</v>
+        <v>-5.47661754410352</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.387895669484988</v>
+        <v>-19.6242581093486</v>
       </c>
       <c r="M49" t="n">
-        <v>1.15698462665323</v>
+        <v>4.38406866378701</v>
       </c>
       <c r="N49" t="n">
-        <v>0.449421625744126</v>
+        <v>-4.79186065631597</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4835,7 +4855,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4865,6 +4885,615 @@
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.124363196835397</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.874355736754386</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.495994112482681</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.82618497555649</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.4835</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0010092876880564</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0133434570949094</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0075780571463595</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.208746160921716</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>112.955</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.121643295354955</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-1.83788751270764</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.11023367561894</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.107691820065473</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.923796858021625</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6.1585</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.168424502712477</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.0595563184631735</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.315549805601272</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.7348299539251</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.922685124017092</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0039983579638752</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.0004562067189496</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.008706870168192099</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.831259451949106</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.617015928048675</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>112</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.243825100133511</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.9568445133965801</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.854426348685466</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.217700982262064</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.968650941869509</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.7785</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.10907570977918</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0074169267607091</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.20481795379772</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.88761287149225</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
+++ b/trend_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="72">
   <si>
     <t>site name</t>
   </si>
@@ -148,49 +148,58 @@
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,13 +681,13 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.988963961487736</v>
+        <v>0.979624517743084</v>
       </c>
       <c r="G2">
-        <v>0.0571428571428571</v>
+        <v>0.0625</v>
       </c>
       <c r="H2">
-        <v>0.742857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -687,22 +696,22 @@
         <v>1.35</v>
       </c>
       <c r="K2">
-        <v>-0.465880102040816</v>
+        <v>-0.453983050847458</v>
       </c>
       <c r="L2">
-        <v>-1.39126584144555</v>
+        <v>-1.53685036729528</v>
       </c>
       <c r="M2">
-        <v>-0.122345894335551</v>
+        <v>-0.0874950792154104</v>
       </c>
       <c r="N2">
-        <v>-34.5096371882086</v>
+        <v>-33.6283741368487</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2">
         <v>1836791</v>
@@ -711,19 +720,19 @@
         <v>5543601</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -743,37 +752,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.027644179528058</v>
+        <v>0.002174025632664</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7</v>
+        <v>0.355</v>
       </c>
       <c r="K3">
-        <v>-0.18974025974026</v>
+        <v>-0.250858516483516</v>
       </c>
       <c r="L3">
-        <v>-0.5059361712396721</v>
+        <v>-0.649932724492164</v>
       </c>
       <c r="M3">
-        <v>-0.008916631024706301</v>
+        <v>-0.0606253038795635</v>
       </c>
       <c r="N3">
-        <v>-27.1057513914657</v>
+        <v>-70.6643708404272</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q3">
         <v>1836791</v>
@@ -782,19 +791,19 @@
         <v>5543601</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -814,37 +823,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.359108064766993</v>
+        <v>0.064817290439506</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.966101694915254</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.47</v>
+        <v>10.53</v>
       </c>
       <c r="K4">
-        <v>-0.0182269352482959</v>
+        <v>-0.07132474078341</v>
       </c>
       <c r="L4">
-        <v>-0.120479561689865</v>
+        <v>-0.143769264932646</v>
       </c>
       <c r="M4">
-        <v>0.0781348897151775</v>
+        <v>-0.002560259365454</v>
       </c>
       <c r="N4">
-        <v>-0.174087251655166</v>
+        <v>-0.677347965654416</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q4">
         <v>1836791</v>
@@ -853,19 +862,19 @@
         <v>5543601</v>
       </c>
       <c r="S4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,43 +888,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.07361642965856049</v>
+        <v>0.0090026755127078</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.355932203389831</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K5">
-        <v>0.0006211734693877</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0002172656786935</v>
       </c>
       <c r="M5">
-        <v>0.0013731203007518</v>
+        <v>0.0015248158567553</v>
       </c>
       <c r="N5">
-        <v>4.14115646258503</v>
+        <v>7.16738618524333</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1836791</v>
@@ -924,19 +933,19 @@
         <v>5543601</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -956,13 +965,13 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.164841675411837</v>
+        <v>0.868309517369431</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.813559322033898</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -971,19 +980,19 @@
         <v>120</v>
       </c>
       <c r="K6">
-        <v>8.26591230551627</v>
+        <v>-9.11287726358149</v>
       </c>
       <c r="L6">
-        <v>-5.97451888412622</v>
+        <v>-29.085255115854</v>
       </c>
       <c r="M6">
-        <v>22.1434315285284</v>
+        <v>4.78448255047368</v>
       </c>
       <c r="N6">
-        <v>6.88826025459689</v>
+        <v>-7.59406438631791</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -995,19 +1004,19 @@
         <v>5543601</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1036,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
         <v>50</v>
@@ -1048,19 +1057,19 @@
         <v>5543601</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,13 +1089,13 @@
         <v>42</v>
       </c>
       <c r="F8">
-        <v>0.994013136081127</v>
+        <v>0.998358905015469</v>
       </c>
       <c r="G8">
-        <v>0.559322033898305</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="H8">
-        <v>0.101694915254237</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1107,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
         <v>51</v>
@@ -1119,19 +1128,19 @@
         <v>5543601</v>
       </c>
       <c r="S8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,10 +1160,10 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0062539628862445</v>
+        <v>0.167838285472905</v>
       </c>
       <c r="G9">
-        <v>0.152542372881356</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="H9">
         <v>0.677966101694915</v>
@@ -1166,19 +1175,19 @@
         <v>0.042</v>
       </c>
       <c r="K9">
-        <v>0.0045127003911726</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="L9">
-        <v>0.0008898190602447</v>
+        <v>-0.0007136970555081</v>
       </c>
       <c r="M9">
-        <v>0.0097340241831769</v>
+        <v>0.0064555498644865</v>
       </c>
       <c r="N9">
-        <v>10.7445247408872</v>
+        <v>1.19456436420722</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
         <v>52</v>
@@ -1190,19 +1199,19 @@
         <v>5543601</v>
       </c>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,34 +1231,34 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.09763091590812201</v>
+        <v>0.359493537311498</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.813559322033898</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.64</v>
+        <v>7.67</v>
       </c>
       <c r="K10">
-        <v>-0.0361932287365814</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L10">
-        <v>-0.07765559353693149</v>
+        <v>-0.049720583155586</v>
       </c>
       <c r="M10">
-        <v>0.0100611791486852</v>
+        <v>0.0324283914249629</v>
       </c>
       <c r="N10">
-        <v>-0.473733360426458</v>
+        <v>-0.130825823459462</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
         <v>53</v>
@@ -1261,16 +1270,16 @@
         <v>5543601</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,37 +1299,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0299659701639453</v>
+        <v>0.442467978937887</v>
       </c>
       <c r="G11">
-        <v>0.0169491525423729</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H11">
         <v>0.813559322033898</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0.055</v>
+        <v>0.058</v>
       </c>
       <c r="K11">
-        <v>0.0056180362048665</v>
+        <v>0.0007696470475551</v>
       </c>
       <c r="L11">
-        <v>0.0002970799814468</v>
+        <v>-0.0039684814814357</v>
       </c>
       <c r="M11">
-        <v>0.0134734530228438</v>
+        <v>0.0075473646844605</v>
       </c>
       <c r="N11">
-        <v>10.2146112815756</v>
+        <v>1.32697766819861</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q11">
         <v>1836791</v>
@@ -1329,19 +1338,19 @@
         <v>5543601</v>
       </c>
       <c r="S11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,34 +1370,34 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.151232875459353</v>
+        <v>0.813351577991817</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.491525423728814</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="K12">
-        <v>0.0070896537672853</v>
+        <v>-0.0029160305260026</v>
       </c>
       <c r="L12">
-        <v>-0.0036035550545781</v>
+        <v>-0.0169918959372657</v>
       </c>
       <c r="M12">
-        <v>0.0210001507418506</v>
+        <v>0.0002842369497806</v>
       </c>
       <c r="N12">
-        <v>4.17038456899138</v>
+        <v>-1.82251907875166</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
         <v>49</v>
@@ -1400,19 +1409,19 @@
         <v>5543601</v>
       </c>
       <c r="S12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,34 +1441,34 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0047473657298345</v>
+        <v>0.251938783125886</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.644067796610169</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="K13">
-        <v>0.0035576298701298</v>
+        <v>0.0005166195190947</v>
       </c>
       <c r="L13">
-        <v>0.0012423469387755</v>
+        <v>-0.0010648948798629</v>
       </c>
       <c r="M13">
-        <v>0.006480301443271</v>
+        <v>0.0024700617493712</v>
       </c>
       <c r="N13">
-        <v>12.7058209647495</v>
+        <v>2.06647807637907</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
         <v>52</v>
@@ -1471,19 +1480,19 @@
         <v>5543601</v>
       </c>
       <c r="S13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,37 +1512,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.038171164146977</v>
+        <v>0.214385970216258</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.949152542372881</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.05</v>
+        <v>3.38</v>
       </c>
       <c r="K14">
-        <v>0.551888736263736</v>
+        <v>0.197260452961673</v>
       </c>
       <c r="L14">
-        <v>0.0230281751898337</v>
+        <v>-0.325113342309376</v>
       </c>
       <c r="M14">
-        <v>1.74483248719609</v>
+        <v>0.898956557602245</v>
       </c>
       <c r="N14">
-        <v>18.0947126643848</v>
+        <v>5.83610807578913</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>1836791</v>
@@ -1542,19 +1551,19 @@
         <v>5543601</v>
       </c>
       <c r="S14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,40 +1580,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>0.578112238491437</v>
+        <v>0.831134830012262</v>
       </c>
       <c r="G15">
-        <v>0.0238095238095238</v>
+        <v>0.0246913580246914</v>
       </c>
       <c r="H15">
-        <v>0.797619047619048</v>
+        <v>0.790123456790123</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="K15">
-        <v>-0.0124957367344263</v>
+        <v>-0.0839847401162056</v>
       </c>
       <c r="L15">
-        <v>-0.158688074184623</v>
+        <v>-0.223492292256402</v>
       </c>
       <c r="M15">
-        <v>0.108705357142857</v>
+        <v>0.0597441543245108</v>
       </c>
       <c r="N15">
-        <v>-0.703985168136695</v>
+        <v>-4.66581889534476</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1836791</v>
@@ -1613,19 +1622,19 @@
         <v>5543601</v>
       </c>
       <c r="S15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1645,37 +1654,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.0002235542993439</v>
+        <v>8.43775660397394E-06</v>
       </c>
       <c r="G16">
-        <v>0.0101010101010101</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="H16">
-        <v>0.696969696969697</v>
+        <v>0.715789473684211</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K16">
-        <v>-0.156535714285714</v>
+        <v>-0.210822510822511</v>
       </c>
       <c r="L16">
-        <v>-0.278841764906089</v>
+        <v>-0.375862590799032</v>
       </c>
       <c r="M16">
-        <v>-0.06799355903885659</v>
+        <v>-0.11126103909786</v>
       </c>
       <c r="N16">
-        <v>-11.1811224489796</v>
+        <v>-17.5685425685426</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1836791</v>
@@ -1684,19 +1693,19 @@
         <v>5543601</v>
       </c>
       <c r="S16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,34 +1725,34 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.9526347786034129</v>
+        <v>0.717148377954507</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.873949579831933</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.44</v>
+        <v>10.47</v>
       </c>
       <c r="K17">
-        <v>0.0232643312101912</v>
+        <v>0.007966194111232099</v>
       </c>
       <c r="L17">
-        <v>0.0014289416828584</v>
+        <v>-0.013294248992883</v>
       </c>
       <c r="M17">
-        <v>0.0515139103390619</v>
+        <v>0.0372704081632654</v>
       </c>
       <c r="N17">
-        <v>0.222838421553555</v>
+        <v>0.07608590364118541</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s">
         <v>55</v>
@@ -1755,19 +1764,19 @@
         <v>5543601</v>
       </c>
       <c r="S17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,10 +1796,10 @@
         <v>42</v>
       </c>
       <c r="F18">
-        <v>0.58359047471408</v>
+        <v>0.653920476377121</v>
       </c>
       <c r="G18">
-        <v>0.0336134453781513</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H18">
         <v>0.210084033613445</v>
@@ -1808,13 +1817,13 @@
         <v>-0.000332347588717</v>
       </c>
       <c r="M18">
-        <v>0.0002514704012604</v>
+        <v>0.0002004240689767</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P18" t="s">
         <v>54</v>
@@ -1826,19 +1835,19 @@
         <v>5543601</v>
       </c>
       <c r="S18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,37 +1867,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0474044888002528</v>
+        <v>0.192762577754256</v>
       </c>
       <c r="G19">
         <v>0.008474576271186401</v>
       </c>
       <c r="H19">
-        <v>0.669491525423729</v>
+        <v>0.720338983050847</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K19">
-        <v>4.29705882352941</v>
+        <v>2.08714285714286</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-2.10912267343087</v>
       </c>
       <c r="M19">
-        <v>8.52531597693498</v>
+        <v>6.48191852988472</v>
       </c>
       <c r="N19">
-        <v>3.94225580140313</v>
+        <v>1.95060080106809</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q19">
         <v>1836791</v>
@@ -1897,19 +1906,19 @@
         <v>5543601</v>
       </c>
       <c r="S19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1929,13 +1938,13 @@
         <v>43</v>
       </c>
       <c r="F20">
-        <v>0.844778143332563</v>
+        <v>0.911635140717647</v>
       </c>
       <c r="G20">
-        <v>0.940677966101695</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="H20">
-        <v>0.09322033898305079</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -1956,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P20" t="s">
         <v>56</v>
@@ -1968,19 +1977,19 @@
         <v>5543601</v>
       </c>
       <c r="S20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2000,13 +2009,13 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>0.968769414459666</v>
+        <v>0.996980284750877</v>
       </c>
       <c r="G21">
-        <v>0.478991596638655</v>
+        <v>0.5630252100840339</v>
       </c>
       <c r="H21">
-        <v>0.092436974789916</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2027,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1836791</v>
@@ -2039,19 +2048,19 @@
         <v>5543601</v>
       </c>
       <c r="S21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,40 +2077,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0026029672519661</v>
+        <v>0.0533717924800036</v>
       </c>
       <c r="G22">
-        <v>0.235294117647059</v>
+        <v>0.218487394957983</v>
       </c>
       <c r="H22">
-        <v>0.630252100840336</v>
+        <v>0.596638655462185</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="K22">
-        <v>0.0012542925824175</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0026300568456589</v>
+        <v>0.0017568584409993</v>
       </c>
       <c r="N22">
-        <v>2.50858516483516</v>
+        <v>1.09068920210224</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q22">
         <v>1836791</v>
@@ -2110,19 +2119,19 @@
         <v>5543601</v>
       </c>
       <c r="S22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,37 +2151,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.205731240058253</v>
+        <v>0.202437056426435</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.567796610169492</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.665</v>
+        <v>7.685</v>
       </c>
       <c r="K23">
-        <v>-0.0071723122238586</v>
+        <v>-0.0059975369458128</v>
       </c>
       <c r="L23">
-        <v>-0.0203276385973206</v>
+        <v>-0.0190871816741148</v>
       </c>
       <c r="M23">
-        <v>0.0055037737127865</v>
+        <v>0.0050161214737283</v>
       </c>
       <c r="N23">
-        <v>-0.0935722403634523</v>
+        <v>-0.078042120309862</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q23">
         <v>1836791</v>
@@ -2181,16 +2190,16 @@
         <v>5543601</v>
       </c>
       <c r="S23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,40 +2216,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>0.0181087725886144</v>
+        <v>0.198357551133201</v>
       </c>
       <c r="G24">
-        <v>0.100840336134454</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H24">
         <v>0.621848739495798</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <v>0.055</v>
       </c>
       <c r="K24">
-        <v>0.0014432370820668</v>
+        <v>0.0005702576112412</v>
       </c>
       <c r="L24">
-        <v>0.0001801405753539</v>
+        <v>-0.0004992639029313</v>
       </c>
       <c r="M24">
-        <v>0.0029951120481385</v>
+        <v>0.0017476076555023</v>
       </c>
       <c r="N24">
-        <v>2.62406742193976</v>
+        <v>1.03683202043858</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1836791</v>
@@ -2249,19 +2258,19 @@
         <v>5543601</v>
       </c>
       <c r="S24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2278,16 +2287,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F25">
-        <v>0.0862067817850812</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
         <v>0.008403361344537799</v>
       </c>
       <c r="H25">
-        <v>0.487394957983193</v>
+        <v>0.38655462184874</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2296,22 +2305,22 @@
         <v>0.17</v>
       </c>
       <c r="K25">
-        <v>0.0026758241758241</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-0.0040096483737587</v>
       </c>
       <c r="M25">
-        <v>0.0066895604395604</v>
+        <v>0.0027619134645801</v>
       </c>
       <c r="N25">
-        <v>1.57401422107304</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>1836791</v>
@@ -2320,19 +2329,19 @@
         <v>5543601</v>
       </c>
       <c r="S25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,37 +2361,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0098070847635183</v>
+        <v>0.0424920399136098</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.453781512605042</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="K26">
-        <v>0.0008843825665859</v>
+        <v>0.0004899396378269</v>
       </c>
       <c r="L26">
-        <v>0.00019043274244</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.001674178762414</v>
+        <v>0.0011150748886444</v>
       </c>
       <c r="N26">
-        <v>3.40147140994599</v>
+        <v>1.95975855130785</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q26">
         <v>1836791</v>
@@ -2391,19 +2400,19 @@
         <v>5543601</v>
       </c>
       <c r="S26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,13 +2432,13 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0265958837416492</v>
+        <v>0.0048350725192481</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9327731092436971</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2438,22 +2447,22 @@
         <v>3.07</v>
       </c>
       <c r="K27">
-        <v>0.132318865345181</v>
+        <v>0.193887587822014</v>
       </c>
       <c r="L27">
-        <v>0.0174856391936764</v>
+        <v>0.0583647689112805</v>
       </c>
       <c r="M27">
-        <v>0.404948216746827</v>
+        <v>0.457298294711813</v>
       </c>
       <c r="N27">
-        <v>4.31006076042935</v>
+        <v>6.31555660658026</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1836791</v>
@@ -2462,19 +2471,19 @@
         <v>5543601</v>
       </c>
       <c r="S27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,37 +2503,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0144764088589587</v>
+        <v>0.06961633474664899</v>
       </c>
       <c r="G28">
-        <v>0.0143884892086331</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="H28">
-        <v>0.755395683453237</v>
+        <v>0.753623188405797</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1.45</v>
+        <v>1.525</v>
       </c>
       <c r="K28">
-        <v>0.0586387755102041</v>
+        <v>0.0434918902881255</v>
       </c>
       <c r="L28">
-        <v>0.0095048600827633</v>
+        <v>-0.0051111634896469</v>
       </c>
       <c r="M28">
-        <v>0.128696068043583</v>
+        <v>0.104597466184485</v>
       </c>
       <c r="N28">
-        <v>4.04405348346235</v>
+        <v>2.85192723200823</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q28">
         <v>1836791</v>
@@ -2533,19 +2542,19 @@
         <v>5543601</v>
       </c>
       <c r="S28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,13 +2574,13 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.043178180164001</v>
+        <v>0.000415522829444</v>
       </c>
       <c r="G29">
-        <v>0.0264900662251656</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="H29">
-        <v>0.556291390728477</v>
+        <v>0.569444444444444</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -2580,22 +2589,22 @@
         <v>1.2</v>
       </c>
       <c r="K29">
-        <v>-0.0265603588875565</v>
+        <v>-0.0498124786907603</v>
       </c>
       <c r="L29">
-        <v>-0.06418765445898469</v>
+        <v>-0.0998504056653791</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-0.0247376126968713</v>
       </c>
       <c r="N29">
-        <v>-2.21336324062971</v>
+        <v>-4.15103989089669</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q29">
         <v>1836791</v>
@@ -2604,19 +2613,19 @@
         <v>5543601</v>
       </c>
       <c r="S29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,37 +2645,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.16537893682301</v>
+        <v>0.279141507366841</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.806818181818182</v>
+        <v>0.80225988700565</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.525</v>
+        <v>10.52</v>
       </c>
       <c r="K30">
-        <v>-0.0100343406593404</v>
+        <v>-0.006678874240775</v>
       </c>
       <c r="L30">
-        <v>-0.0329897347473922</v>
+        <v>-0.0234408456673575</v>
       </c>
       <c r="M30">
-        <v>0.0060930628087816</v>
+        <v>0.0100022820629848</v>
       </c>
       <c r="N30">
-        <v>-0.09533815353292591</v>
+        <v>-0.06348739772599871</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q30">
         <v>1836791</v>
@@ -2675,19 +2684,19 @@
         <v>5543601</v>
       </c>
       <c r="S30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,7 +2716,7 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0285953315784971</v>
+        <v>0.0126075085528229</v>
       </c>
       <c r="G31">
         <v>0.0337078651685393</v>
@@ -2722,22 +2731,22 @@
         <v>0.014</v>
       </c>
       <c r="K31">
-        <v>0.0001664012219967</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.000332347588717</v>
+        <v>0.0003636137381781</v>
       </c>
       <c r="N31">
-        <v>1.1885801571198</v>
+        <v>1.42798498709829</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Q31">
         <v>1836791</v>
@@ -2746,19 +2755,19 @@
         <v>5543601</v>
       </c>
       <c r="S31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,37 +2787,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.0020595318422063</v>
+        <v>0.0131089848026878</v>
       </c>
       <c r="G32">
         <v>0.0056497175141242</v>
       </c>
       <c r="H32">
-        <v>0.627118644067797</v>
+        <v>0.672316384180791</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32">
-        <v>3.59741492989769</v>
+        <v>2.68229087682504</v>
       </c>
       <c r="L32">
-        <v>1.6384965761283</v>
+        <v>0.681409859260521</v>
       </c>
       <c r="M32">
-        <v>5.74685239934307</v>
+        <v>4.83606271777003</v>
       </c>
       <c r="N32">
-        <v>3.91023361945401</v>
+        <v>2.88418373852155</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q32">
         <v>1836791</v>
@@ -2817,19 +2826,19 @@
         <v>5543601</v>
       </c>
       <c r="S32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2849,7 +2858,7 @@
         <v>43</v>
       </c>
       <c r="F33">
-        <v>0.914507665769973</v>
+        <v>0.986821065554926</v>
       </c>
       <c r="G33">
         <v>0.920454545454545</v>
@@ -2876,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q33">
         <v>1836791</v>
@@ -2888,19 +2897,19 @@
         <v>5543601</v>
       </c>
       <c r="S33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,13 +2929,13 @@
         <v>42</v>
       </c>
       <c r="F34">
-        <v>0.257413151549884</v>
+        <v>0.526962977922295</v>
       </c>
       <c r="G34">
-        <v>0.544378698224852</v>
+        <v>0.556179775280899</v>
       </c>
       <c r="H34">
-        <v>0.0650887573964497</v>
+        <v>0.06741573033707859</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2947,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q34">
         <v>1836791</v>
@@ -2959,19 +2968,19 @@
         <v>5543601</v>
       </c>
       <c r="S34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,19 +3000,19 @@
         <v>42</v>
       </c>
       <c r="F35">
-        <v>0.190589272057241</v>
+        <v>0.382065687880936</v>
       </c>
       <c r="G35">
-        <v>0.230769230769231</v>
+        <v>0.230337078651685</v>
       </c>
       <c r="H35">
-        <v>0.6213017751479289</v>
+        <v>0.601123595505618</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>0.047</v>
+        <v>0.0465</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3012,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0006553541363264</v>
+        <v>0.0003143726521686</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q35">
         <v>1836791</v>
@@ -3030,19 +3039,19 @@
         <v>5543601</v>
       </c>
       <c r="S35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,34 +3071,34 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.977071489600135</v>
+        <v>0.801428058881295</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.525714285714286</v>
+        <v>0.48</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.64</v>
+        <v>7.66</v>
       </c>
       <c r="K36">
-        <v>0.0101811846689896</v>
+        <v>0.0032459453454787</v>
       </c>
       <c r="L36">
-        <v>0.0016670470104974</v>
+        <v>-0.0031709184348886</v>
       </c>
       <c r="M36">
-        <v>0.0190407919370441</v>
+        <v>0.0100343406593404</v>
       </c>
       <c r="N36">
-        <v>0.133261579437036</v>
+        <v>0.0423752656067727</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P36" t="s">
         <v>55</v>
@@ -3101,16 +3110,16 @@
         <v>5543601</v>
       </c>
       <c r="S36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3130,37 +3139,37 @@
         <v>42</v>
       </c>
       <c r="F37">
-        <v>0.758495614224154</v>
+        <v>0.715663362318833</v>
       </c>
       <c r="G37">
-        <v>0.06741573033707859</v>
+        <v>0.0786516853932584</v>
       </c>
       <c r="H37">
         <v>0.606741573033708</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>0.058</v>
+        <v>0.055</v>
       </c>
       <c r="K37">
-        <v>-0.0003663938637698</v>
+        <v>-0.0002793963208922</v>
       </c>
       <c r="L37">
-        <v>-0.001425644028103</v>
+        <v>-0.0011257108501911</v>
       </c>
       <c r="M37">
-        <v>0.0004740120898438</v>
+        <v>0.000503792566453</v>
       </c>
       <c r="N37">
-        <v>-0.631713558223824</v>
+        <v>-0.507993310713132</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q37">
         <v>1836791</v>
@@ -3169,19 +3178,19 @@
         <v>5543601</v>
       </c>
       <c r="S37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3201,34 +3210,34 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.831597574978995</v>
+        <v>0.931232658519114</v>
       </c>
       <c r="G38">
         <v>0.0056179775280898</v>
       </c>
       <c r="H38">
-        <v>0.49438202247191</v>
+        <v>0.455056179775281</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.177</v>
+        <v>0.17</v>
       </c>
       <c r="K38">
-        <v>-0.0013660147344386</v>
+        <v>-0.0016697185601938</v>
       </c>
       <c r="L38">
-        <v>-0.003341303876735</v>
+        <v>-0.0035878327951218</v>
       </c>
       <c r="M38">
-        <v>0.0007677497499992</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>-0.771759736970987</v>
+        <v>-0.982187388349295</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P38" t="s">
         <v>56</v>
@@ -3240,19 +3249,19 @@
         <v>5543601</v>
       </c>
       <c r="S38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3266,43 +3275,43 @@
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.256114557552655</v>
+        <v>0.2502818600459</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.387640449438202</v>
+        <v>0.370786516853933</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.026</v>
+        <v>0.0255</v>
       </c>
       <c r="K39">
-        <v>0.0001425644028103</v>
+        <v>0.0001260351966873</v>
       </c>
       <c r="L39">
-        <v>-0.0001999178981937</v>
+        <v>-0.0001688626907073</v>
       </c>
       <c r="M39">
-        <v>0.000582973853718</v>
+        <v>0.0004609414437152</v>
       </c>
       <c r="N39">
-        <v>0.548324626193477</v>
+        <v>0.494255673283805</v>
       </c>
       <c r="O39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1836791</v>
@@ -3311,19 +3320,19 @@
         <v>5543601</v>
       </c>
       <c r="S39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3343,37 +3352,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.229622797811679</v>
+        <v>0.06939190878215611</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.921348314606742</v>
+        <v>0.904494382022472</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3.395</v>
+        <v>3.29</v>
       </c>
       <c r="K40">
-        <v>0.0381771253932473</v>
+        <v>0.06455939064915971</v>
       </c>
       <c r="L40">
-        <v>-0.0314334859141626</v>
+        <v>-0.0045733376178212</v>
       </c>
       <c r="M40">
-        <v>0.133458884915623</v>
+        <v>0.168084735333236</v>
       </c>
       <c r="N40">
-        <v>1.12451032086148</v>
+        <v>1.962291509093</v>
       </c>
       <c r="O40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q40">
         <v>1836791</v>
@@ -3382,19 +3391,19 @@
         <v>5543601</v>
       </c>
       <c r="S40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3414,37 +3423,37 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.113988691423495</v>
+        <v>0.039036395382906</v>
       </c>
       <c r="G41">
-        <v>0.032258064516129</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="H41">
-        <v>0.5053763440860219</v>
+        <v>0.5</v>
       </c>
       <c r="I41">
         <v>4</v>
       </c>
       <c r="J41">
-        <v>1.335</v>
+        <v>1.225</v>
       </c>
       <c r="K41">
-        <v>-0.0109483882694577</v>
+        <v>-0.0166420230512587</v>
       </c>
       <c r="L41">
-        <v>-0.0377184830809232</v>
+        <v>-0.0395890259348665</v>
       </c>
       <c r="M41">
-        <v>0.0033171832824654</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-0.820103990221548</v>
+        <v>-1.3585324939803</v>
       </c>
       <c r="O41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q41">
         <v>1836791</v>
@@ -3453,19 +3462,19 @@
         <v>5543601</v>
       </c>
       <c r="S41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3473,7 +3482,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3482,40 +3491,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.451170189491532</v>
+        <v>0.035333359343043</v>
       </c>
       <c r="G42">
-        <v>0.0373831775700935</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.144859813084112</v>
+        <v>0.795</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.014</v>
+        <v>10.535</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-0.0167474085355175</v>
       </c>
       <c r="L42">
-        <v>-9.09199888562746E-05</v>
+        <v>-0.0342154566744731</v>
       </c>
       <c r="M42">
-        <v>0.0001248062270189</v>
+        <v>-0.0016617379435851</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0.158969231471452</v>
       </c>
       <c r="O42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q42">
         <v>1836791</v>
@@ -3524,19 +3533,19 @@
         <v>5543601</v>
       </c>
       <c r="S42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V42" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3544,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3553,40 +3562,40 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43">
-        <v>0.0003795605922327</v>
+        <v>0.374764758991337</v>
       </c>
       <c r="G43">
-        <v>0.0046948356807511</v>
+        <v>0.0353982300884956</v>
       </c>
       <c r="H43">
-        <v>0.5821596244131459</v>
+        <v>0.13716814159292</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>91</v>
+        <v>0.014</v>
       </c>
       <c r="K43">
-        <v>3.28987873410234</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1.63886277199012</v>
+        <v>-6.67022181256204E-05</v>
       </c>
       <c r="M43">
-        <v>5.01337455546697</v>
+        <v>0.000124817313522</v>
       </c>
       <c r="N43">
-        <v>3.61525135615641</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q43">
         <v>1836791</v>
@@ -3595,19 +3604,19 @@
         <v>5543601</v>
       </c>
       <c r="S43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3615,49 +3624,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.897292364964533</v>
+        <v>0.002409753348418</v>
       </c>
       <c r="G44">
-        <v>0.919047619047619</v>
+        <v>0.0044444444444444</v>
       </c>
       <c r="H44">
-        <v>0.104761904761905</v>
+        <v>0.626666666666667</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>91</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>2.60749588138385</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1.15545136882443</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>4.20199373200085</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>2.86538008943281</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q44">
         <v>1836791</v>
@@ -3666,19 +3675,19 @@
         <v>5543601</v>
       </c>
       <c r="S44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3686,37 +3695,37 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45">
-        <v>0.732782330399341</v>
+        <v>0.941911115216446</v>
       </c>
       <c r="G45">
-        <v>0.23469387755102</v>
+        <v>0.923423423423423</v>
       </c>
       <c r="H45">
-        <v>0.591836734693878</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0011785052992526</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3725,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P45" t="s">
         <v>56</v>
@@ -3737,19 +3746,19 @@
         <v>5543601</v>
       </c>
       <c r="S45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3757,7 +3766,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3766,40 +3775,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>0.940016213392654</v>
+        <v>0.840354322484766</v>
       </c>
       <c r="G46">
-        <v>0.0934579439252336</v>
+        <v>0.235576923076923</v>
       </c>
       <c r="H46">
-        <v>0.579439252336449</v>
+        <v>0.572115384615385</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>0.059</v>
+        <v>0.05</v>
       </c>
       <c r="K46">
-        <v>-0.000888364742201</v>
+        <v>-0.0001206122437308</v>
       </c>
       <c r="L46">
-        <v>-0.0019012913955346</v>
+        <v>-0.0012219783291169</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>-1.50570295288309</v>
+        <v>-0.241224487461725</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q46">
         <v>1836791</v>
@@ -3808,19 +3817,19 @@
         <v>5543601</v>
       </c>
       <c r="S46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W46" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3828,49 +3837,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.286022832091064</v>
+        <v>0.9997880958723599</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.906542056074766</v>
+        <v>0.492822966507177</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3.35</v>
+        <v>7.64</v>
       </c>
       <c r="K47">
-        <v>0.0158224679945012</v>
+        <v>0.0140811084376932</v>
       </c>
       <c r="L47">
-        <v>-0.0277402590414763</v>
+        <v>0.0074965008752719</v>
       </c>
       <c r="M47">
-        <v>0.076623206955075</v>
+        <v>0.0211534749034748</v>
       </c>
       <c r="N47">
-        <v>0.472312477447797</v>
+        <v>0.184307702064048</v>
       </c>
       <c r="O47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P47" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Q47">
         <v>1836791</v>
@@ -3879,19 +3888,16 @@
         <v>5543601</v>
       </c>
       <c r="S47" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U47" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V47" t="s">
-        <v>62</v>
-      </c>
-      <c r="W47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3899,49 +3905,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F48">
-        <v>0.231216363225238</v>
+        <v>0.983247206623973</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0973451327433628</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.575221238938053</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J48">
-        <v>0.488</v>
+        <v>0.0585</v>
       </c>
       <c r="K48">
-        <v>-0.0143112691807867</v>
+        <v>-0.0010058578197165</v>
       </c>
       <c r="L48">
-        <v>-0.0611320065181599</v>
+        <v>-0.0019045737090345</v>
       </c>
       <c r="M48">
-        <v>0.0102107258931863</v>
+        <v>-0.0003560981696215</v>
       </c>
       <c r="N48">
-        <v>-2.93263712721039</v>
+        <v>-1.71941507643849</v>
       </c>
       <c r="O48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q48">
         <v>1836791</v>
@@ -3950,131 +3956,137 @@
         <v>5543601</v>
       </c>
       <c r="S48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.231216363225238</v>
+        <v>0.9534733187790559</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0046728971962616</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.420560747663551</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>114.29</v>
+        <v>0.17</v>
       </c>
       <c r="K49">
-        <v>-5.47661754410352</v>
+        <v>-0.0015084423014056</v>
       </c>
       <c r="L49">
-        <v>-19.6242581093486</v>
+        <v>-0.0033150424120996</v>
       </c>
       <c r="M49">
-        <v>4.38406866378701</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>-4.79186065631597</v>
+        <v>-0.887319000826876</v>
       </c>
       <c r="O49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49">
+        <v>1836791</v>
+      </c>
+      <c r="R49">
+        <v>5543601</v>
+      </c>
+      <c r="S49" t="s">
+        <v>62</v>
+      </c>
+      <c r="T49" t="s">
+        <v>63</v>
+      </c>
+      <c r="U49" t="s">
+        <v>64</v>
+      </c>
+      <c r="V49" t="s">
+        <v>65</v>
+      </c>
+      <c r="W49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>44</v>
       </c>
-      <c r="P49" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q49">
-        <v>1836791</v>
-      </c>
-      <c r="R49">
-        <v>5543601</v>
-      </c>
-      <c r="S49" t="s">
-        <v>59</v>
-      </c>
-      <c r="T49" t="s">
-        <v>60</v>
-      </c>
-      <c r="U49" t="s">
-        <v>61</v>
-      </c>
-      <c r="V49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
       <c r="F50">
-        <v>0.59675202974633</v>
+        <v>0.64732068814296</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.350467289719626</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>6.81</v>
+        <v>0.026</v>
       </c>
       <c r="K50">
-        <v>0.124363196835397</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>-0.874355736754386</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M50">
-        <v>0.495994112482681</v>
+        <v>0.0001820787637088</v>
       </c>
       <c r="N50">
-        <v>1.82618497555649</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P50" t="s">
         <v>54</v>
@@ -4086,66 +4098,69 @@
         <v>5543601</v>
       </c>
       <c r="S50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.639742606431872</v>
+        <v>0.256385805703216</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.898230088495575</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.4835</v>
+        <v>3.35</v>
       </c>
       <c r="K51">
-        <v>0.0010092876880564</v>
+        <v>0.0175534330400681</v>
       </c>
       <c r="L51">
-        <v>-0.0133434570949094</v>
+        <v>-0.0213103471260341</v>
       </c>
       <c r="M51">
-        <v>0.0075780571463595</v>
+        <v>0.0765134362251991</v>
       </c>
       <c r="N51">
-        <v>0.208746160921716</v>
+        <v>0.52398307582293</v>
       </c>
       <c r="O51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q51">
         <v>1836791</v>
@@ -4154,27 +4169,30 @@
         <v>5543601</v>
       </c>
       <c r="S51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U51" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4183,7 +4201,7 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4195,25 +4213,25 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>112.955</v>
+        <v>0.488</v>
       </c>
       <c r="K52">
-        <v>0.121643295354955</v>
+        <v>0.0121575182003678</v>
       </c>
       <c r="L52">
-        <v>-1.83788751270764</v>
+        <v>-0.0256252344580143</v>
       </c>
       <c r="M52">
-        <v>1.11023367561894</v>
+        <v>0.0315415185538181</v>
       </c>
       <c r="N52">
-        <v>0.107691820065473</v>
+        <v>2.49129471319012</v>
       </c>
       <c r="O52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P52" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q52">
         <v>1836791</v>
@@ -4222,27 +4240,27 @@
         <v>5543601</v>
       </c>
       <c r="S52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4251,7 +4269,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.923796858021625</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4263,25 +4281,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>6.1585</v>
+        <v>114.29</v>
       </c>
       <c r="K53">
-        <v>0.168424502712477</v>
+        <v>1.84968941292793</v>
       </c>
       <c r="L53">
-        <v>-0.0595563184631735</v>
+        <v>-9.202141161601331</v>
       </c>
       <c r="M53">
-        <v>0.315549805601272</v>
+        <v>5.95622307423229</v>
       </c>
       <c r="N53">
-        <v>2.7348299539251</v>
+        <v>1.61841754565398</v>
       </c>
       <c r="O53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q53">
         <v>1836791</v>
@@ -4290,27 +4308,27 @@
         <v>5543601</v>
       </c>
       <c r="S53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U53" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4319,7 +4337,7 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.922685124017092</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4331,25 +4349,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.481</v>
+        <v>6.49</v>
       </c>
       <c r="K54">
-        <v>0.0039983579638752</v>
+        <v>0.196983960348958</v>
       </c>
       <c r="L54">
-        <v>-0.0004562067189496</v>
+        <v>-0.289954327309441</v>
       </c>
       <c r="M54">
-        <v>0.008706870168192099</v>
+        <v>0.495994112482681</v>
       </c>
       <c r="N54">
-        <v>0.831259451949106</v>
+        <v>3.03519199305021</v>
       </c>
       <c r="O54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P54" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q54">
         <v>1836791</v>
@@ -4358,27 +4376,27 @@
         <v>5543601</v>
       </c>
       <c r="S54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U54" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4387,37 +4405,37 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.617015928048675</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.866666666666667</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>112</v>
+        <v>0.486</v>
       </c>
       <c r="K55">
-        <v>0.243825100133511</v>
+        <v>0.0031037559483344</v>
       </c>
       <c r="L55">
-        <v>-0.9568445133965801</v>
+        <v>-0.0112365476224781</v>
       </c>
       <c r="M55">
-        <v>0.854426348685466</v>
+        <v>0.009887527823898601</v>
       </c>
       <c r="N55">
-        <v>0.217700982262064</v>
+        <v>0.638632911179931</v>
       </c>
       <c r="O55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P55" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q55">
         <v>1836791</v>
@@ -4426,27 +4444,27 @@
         <v>5543601</v>
       </c>
       <c r="S55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U55" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4455,7 +4473,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.968650941869509</v>
+        <v>0.5</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4467,25 +4485,25 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5.7785</v>
+        <v>114.1</v>
       </c>
       <c r="K56">
-        <v>0.10907570977918</v>
+        <v>0.121643295354955</v>
       </c>
       <c r="L56">
-        <v>0.0074169267607091</v>
+        <v>-2.11259439969542</v>
       </c>
       <c r="M56">
-        <v>0.20481795379772</v>
+        <v>1.07069983387403</v>
       </c>
       <c r="N56">
-        <v>1.88761287149225</v>
+        <v>0.106611126516174</v>
       </c>
       <c r="O56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q56">
         <v>1836791</v>
@@ -4494,16 +4512,288 @@
         <v>5543601</v>
       </c>
       <c r="S56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U56" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V56" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>6.443</v>
+      </c>
+      <c r="K57">
+        <v>0.17381033310673</v>
+      </c>
+      <c r="L57">
+        <v>-0.06299814665040521</v>
+      </c>
+      <c r="M57">
+        <v>0.309497778364951</v>
+      </c>
+      <c r="N57">
+        <v>2.69766154131197</v>
+      </c>
+      <c r="O57" t="s">
+        <v>45</v>
+      </c>
+      <c r="P57" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q57">
+        <v>1836791</v>
+      </c>
+      <c r="R57">
+        <v>5543601</v>
+      </c>
+      <c r="S57" t="s">
+        <v>62</v>
+      </c>
+      <c r="T57" t="s">
+        <v>63</v>
+      </c>
+      <c r="U57" t="s">
+        <v>64</v>
+      </c>
+      <c r="V57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.962587696448458</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.483</v>
+      </c>
+      <c r="K58">
+        <v>0.0053247635933806</v>
+      </c>
+      <c r="L58">
+        <v>0.0006307617863289</v>
+      </c>
+      <c r="M58">
+        <v>0.009283746360061299</v>
+      </c>
+      <c r="N58">
+        <v>1.10243552657984</v>
+      </c>
+      <c r="O58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P58" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58">
+        <v>1836791</v>
+      </c>
+      <c r="R58">
+        <v>5543601</v>
+      </c>
+      <c r="S58" t="s">
+        <v>62</v>
+      </c>
+      <c r="T58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U58" t="s">
+        <v>64</v>
+      </c>
+      <c r="V58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.826752503548109</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>112</v>
+      </c>
+      <c r="K59">
+        <v>0.526764585605235</v>
+      </c>
+      <c r="L59">
+        <v>-0.511135814884443</v>
+      </c>
+      <c r="M59">
+        <v>0.9606540772350119</v>
+      </c>
+      <c r="N59">
+        <v>0.470325522861817</v>
+      </c>
+      <c r="O59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q59">
+        <v>1836791</v>
+      </c>
+      <c r="R59">
+        <v>5543601</v>
+      </c>
+      <c r="S59" t="s">
+        <v>62</v>
+      </c>
+      <c r="T59" t="s">
+        <v>63</v>
+      </c>
+      <c r="U59" t="s">
+        <v>64</v>
+      </c>
+      <c r="V59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.962587696448458</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.827</v>
+      </c>
+      <c r="K60">
+        <v>0.0968411159477643</v>
+      </c>
+      <c r="L60">
+        <v>0.0041031872083684</v>
+      </c>
+      <c r="M60">
+        <v>0.188150318555823</v>
+      </c>
+      <c r="N60">
+        <v>1.66193780586518</v>
+      </c>
+      <c r="O60" t="s">
+        <v>45</v>
+      </c>
+      <c r="P60" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q60">
+        <v>1836791</v>
+      </c>
+      <c r="R60">
+        <v>5543601</v>
+      </c>
+      <c r="S60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T60" t="s">
+        <v>63</v>
+      </c>
+      <c r="U60" t="s">
+        <v>64</v>
+      </c>
+      <c r="V60" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
